--- a/other/input/AQWMS/sgs_site_names_matching_table_manual_edit.xlsx
+++ b/other/input/AQWMS/sgs_site_names_matching_table_manual_edit.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report\other\input\AQWMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx/other/input/AQWMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EE66614BA1A2EAAC1296813F4239D4396297A70B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95064CD-EE3F-41E4-9412-C19CB2BD83C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8730"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="106">
   <si>
     <t>Monitoring Location Name</t>
   </si>
@@ -141,9 +142,6 @@
   </si>
   <si>
     <t>RM0_No_Name_Creek</t>
-  </si>
-  <si>
-    <t>RM1.5_Kenai_City_Dock</t>
   </si>
   <si>
     <t>RM6.5_Cunning_Hem</t>
@@ -350,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,12 +668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -701,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -745,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -778,10 +776,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -814,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,10 +845,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +856,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -872,10 +870,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,10 +881,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,10 +892,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -905,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -927,10 +925,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,10 +947,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -971,10 +969,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -996,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1010,10 +1008,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1032,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -1057,10 +1055,10 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -1079,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1101,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,10 +1110,10 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -1137,10 +1135,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
@@ -1162,10 +1160,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -1176,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -1193,10 +1191,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,10 +1202,10 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,10 +1213,10 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,10 +1224,10 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,10 +1235,10 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -1259,10 +1257,13 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,24 +1271,24 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,24 +1296,21 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,29 +1318,29 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
         <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -1350,10 +1348,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>77</v>
@@ -1361,7 +1359,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -1370,20 +1368,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D74">
-    <sortCondition ref="B2:B74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+    <sortCondition ref="B2:B73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
